--- a/data/trans_orig/P57B5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88660D7F-D298-4CCC-BFBA-08238E86773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95BE9F67-44EA-4494-BA43-5386EE550076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{630B8CCC-8B98-407E-A348-A2903DFB4A41}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E3D1357-CFB6-44AA-8C9A-C47E5E91B1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="235">
   <si>
     <t>Población según se ha sentido rebosante de energía en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -74,82 +74,88 @@
     <t>41,0%</t>
   </si>
   <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>16,79%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
   </si>
   <si>
     <t>30,64%</t>
   </si>
   <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>24,07%</t>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -158,568 +164,580 @@
     <t>5,8%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>6,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,7 +1152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC8D0B4-0C73-4CE1-92E4-A88CC8E6057A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A825B8-4F3B-4090-9A66-0E214A1205F9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1360,13 +1378,13 @@
         <v>31011</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>78</v>
@@ -1375,13 +1393,13 @@
         <v>36078</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>118</v>
@@ -1390,19 +1408,19 @@
         <v>67089</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>8</v>
@@ -1411,13 +1429,13 @@
         <v>5871</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -1426,13 +1444,13 @@
         <v>11609</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -1441,13 +1459,13 @@
         <v>17480</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,13 +1480,13 @@
         <v>101194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>240</v>
@@ -1477,13 +1495,13 @@
         <v>128836</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>357</v>
@@ -1492,18 +1510,18 @@
         <v>230030</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1515,13 +1533,13 @@
         <v>215624</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>256</v>
@@ -1530,13 +1548,13 @@
         <v>184147</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>458</v>
@@ -1545,13 +1563,13 @@
         <v>399771</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,13 +1584,13 @@
         <v>193466</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>394</v>
@@ -1581,13 +1599,13 @@
         <v>233028</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>616</v>
@@ -1596,13 +1614,13 @@
         <v>426493</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,13 +1635,13 @@
         <v>107369</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>243</v>
@@ -1632,13 +1650,13 @@
         <v>123924</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>389</v>
@@ -1647,19 +1665,19 @@
         <v>231293</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>39</v>
@@ -1668,13 +1686,13 @@
         <v>31095</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>99</v>
@@ -1683,13 +1701,13 @@
         <v>50161</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>138</v>
@@ -1698,13 +1716,13 @@
         <v>81256</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,13 +1737,13 @@
         <v>547553</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>992</v>
@@ -1734,13 +1752,13 @@
         <v>591260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1601</v>
@@ -1749,18 +1767,18 @@
         <v>1138813</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1772,13 +1790,13 @@
         <v>477195</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>411</v>
@@ -1787,13 +1805,13 @@
         <v>351109</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>766</v>
@@ -1802,13 +1820,13 @@
         <v>828304</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,13 +1841,13 @@
         <v>388070</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>647</v>
@@ -1838,13 +1856,13 @@
         <v>437420</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>1054</v>
@@ -1853,13 +1871,13 @@
         <v>825490</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1892,13 @@
         <v>133835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>348</v>
@@ -1889,13 +1907,13 @@
         <v>204550</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>508</v>
@@ -1904,19 +1922,19 @@
         <v>338385</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>41</v>
@@ -1925,13 +1943,13 @@
         <v>39287</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
@@ -1940,13 +1958,13 @@
         <v>62523</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
@@ -1955,13 +1973,13 @@
         <v>101810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,13 +1994,13 @@
         <v>1038387</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>1509</v>
@@ -1991,13 +2009,13 @@
         <v>1055601</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>2472</v>
@@ -2006,18 +2024,18 @@
         <v>2093988</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2029,13 +2047,13 @@
         <v>313864</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>313</v>
@@ -2044,13 +2062,13 @@
         <v>258175</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>573</v>
@@ -2059,13 +2077,13 @@
         <v>572039</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2098,13 @@
         <v>286217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>470</v>
@@ -2095,13 +2113,13 @@
         <v>446962</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>749</v>
@@ -2110,13 +2128,13 @@
         <v>733179</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2149,13 @@
         <v>106912</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>198</v>
@@ -2146,13 +2164,13 @@
         <v>126799</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>314</v>
@@ -2161,19 +2179,19 @@
         <v>233711</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>20</v>
@@ -2182,13 +2200,13 @@
         <v>21148</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -2197,13 +2215,13 @@
         <v>39966</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -2212,13 +2230,13 @@
         <v>61114</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2251,13 @@
         <v>728141</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>1044</v>
@@ -2248,13 +2266,13 @@
         <v>871902</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1719</v>
@@ -2263,18 +2281,18 @@
         <v>1600043</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2286,28 +2304,28 @@
         <v>358872</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>404</v>
       </c>
       <c r="I24" s="7">
-        <v>327405</v>
+        <v>327404</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>738</v>
@@ -2316,13 +2334,13 @@
         <v>686276</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2355,13 @@
         <v>405454</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>649</v>
@@ -2352,13 +2370,13 @@
         <v>478134</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>1089</v>
@@ -2367,13 +2385,13 @@
         <v>883589</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2406,13 @@
         <v>155830</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>394</v>
@@ -2403,13 +2421,13 @@
         <v>258248</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>573</v>
@@ -2418,19 +2436,19 @@
         <v>414078</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>49</v>
@@ -2439,13 +2457,13 @@
         <v>42622</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>113</v>
@@ -2454,13 +2472,13 @@
         <v>83400</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>162</v>
@@ -2469,13 +2487,13 @@
         <v>126022</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,43 +2508,43 @@
         <v>962778</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>1560</v>
       </c>
       <c r="I28" s="7">
-        <v>1147187</v>
+        <v>1147186</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>2562</v>
       </c>
       <c r="N28" s="7">
-        <v>2109965</v>
+        <v>2109964</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2561,13 @@
         <v>1407044</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>1424</v>
@@ -2558,13 +2576,13 @@
         <v>1150050</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>2613</v>
@@ -2573,13 +2591,13 @@
         <v>2557094</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2612,13 @@
         <v>1296029</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>24</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>2255</v>
@@ -2609,13 +2627,13 @@
         <v>1647478</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>3634</v>
@@ -2624,13 +2642,13 @@
         <v>2943507</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2663,13 @@
         <v>534956</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>1261</v>
@@ -2660,13 +2678,13 @@
         <v>749599</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>1902</v>
@@ -2675,19 +2693,19 @@
         <v>1284555</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>157</v>
@@ -2696,13 +2714,13 @@
         <v>140023</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>405</v>
@@ -2711,13 +2729,13 @@
         <v>247659</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>562</v>
@@ -2726,13 +2744,13 @@
         <v>387682</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2765,13 @@
         <v>3378053</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>5345</v>
@@ -2762,13 +2780,13 @@
         <v>3794786</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>8711</v>
@@ -2777,18 +2795,18 @@
         <v>7172838</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95BE9F67-44EA-4494-BA43-5386EE550076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A5A989D-D33C-4260-B426-32A410EC8050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E3D1357-CFB6-44AA-8C9A-C47E5E91B1B4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8160D5D8-EC95-4C7C-9FB7-21074AFAFAC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>39,38%</t>
@@ -302,7 +302,7 @@
     <t>8,65%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>45,96%</t>
@@ -413,7 +413,7 @@
     <t>5,85%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>43,1%</t>
@@ -1152,7 +1152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A825B8-4F3B-4090-9A66-0E214A1205F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7372338D-3F92-4E6A-8B40-41EF4625B0E5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A5A989D-D33C-4260-B426-32A410EC8050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43FB5C8A-EC89-444F-857A-3A0BA53E9487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8160D5D8-EC95-4C7C-9FB7-21074AFAFAC2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD703E25-9489-4586-AEE8-AC5D4AAD30F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
   <si>
     <t>Población según se ha sentido rebosante de energía en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>41,0%</t>
   </si>
   <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
   </si>
   <si>
     <t>30,74%</t>
   </si>
   <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,58 +104,52 @@
     <t>22,55%</t>
   </si>
   <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
   </si>
   <si>
     <t>40,31%</t>
   </si>
   <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
   </si>
   <si>
     <t>En algún momento</t>
   </si>
   <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
+    <t>24,07%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -164,364 +158,361 @@
     <t>5,8%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
+    <t>2,89%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -530,214 +521,205 @@
     <t>37,27%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
   </si>
   <si>
     <t>28,54%</t>
   </si>
   <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
   </si>
   <si>
     <t>32,53%</t>
   </si>
   <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
   </si>
   <si>
     <t>42,11%</t>
   </si>
   <si>
-    <t>45,77%</t>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
   </si>
   <si>
     <t>41,68%</t>
   </si>
   <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
   </si>
   <si>
     <t>41,88%</t>
   </si>
   <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>22,51%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
     <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1152,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7372338D-3F92-4E6A-8B40-41EF4625B0E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9464005B-A10A-4ADE-A9A7-6E77659A45C7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1378,13 +1360,13 @@
         <v>31011</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>78</v>
@@ -1393,13 +1375,13 @@
         <v>36078</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>118</v>
@@ -1408,19 +1390,19 @@
         <v>67089</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>8</v>
@@ -1429,13 +1411,13 @@
         <v>5871</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -1444,13 +1426,13 @@
         <v>11609</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -1459,13 +1441,13 @@
         <v>17480</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1480,13 +1462,13 @@
         <v>101194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>240</v>
@@ -1495,13 +1477,13 @@
         <v>128836</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>357</v>
@@ -1510,18 +1492,18 @@
         <v>230030</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1533,13 +1515,13 @@
         <v>215624</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>256</v>
@@ -1548,13 +1530,13 @@
         <v>184147</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>458</v>
@@ -1563,13 +1545,13 @@
         <v>399771</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,13 +1566,13 @@
         <v>193466</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>394</v>
@@ -1599,13 +1581,13 @@
         <v>233028</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>616</v>
@@ -1614,13 +1596,13 @@
         <v>426493</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1635,13 +1617,13 @@
         <v>107369</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>243</v>
@@ -1650,13 +1632,13 @@
         <v>123924</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>389</v>
@@ -1665,19 +1647,19 @@
         <v>231293</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>39</v>
@@ -1686,13 +1668,13 @@
         <v>31095</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>99</v>
@@ -1701,13 +1683,13 @@
         <v>50161</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>138</v>
@@ -1716,13 +1698,13 @@
         <v>81256</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,13 +1719,13 @@
         <v>547553</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>992</v>
@@ -1752,13 +1734,13 @@
         <v>591260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>1601</v>
@@ -1767,18 +1749,18 @@
         <v>1138813</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1790,13 +1772,13 @@
         <v>477195</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>411</v>
@@ -1805,13 +1787,13 @@
         <v>351109</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>766</v>
@@ -1820,13 +1802,13 @@
         <v>828304</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,13 +1823,13 @@
         <v>388070</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>647</v>
@@ -1856,13 +1838,13 @@
         <v>437420</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>1054</v>
@@ -1871,13 +1853,13 @@
         <v>825490</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,13 +1874,13 @@
         <v>133835</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>348</v>
@@ -1907,13 +1889,13 @@
         <v>204550</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>508</v>
@@ -1922,19 +1904,19 @@
         <v>338385</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>41</v>
@@ -1943,13 +1925,13 @@
         <v>39287</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
@@ -1958,13 +1940,13 @@
         <v>62523</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
@@ -1973,13 +1955,13 @@
         <v>101810</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,13 +1976,13 @@
         <v>1038387</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>1509</v>
@@ -2009,13 +1991,13 @@
         <v>1055601</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>2472</v>
@@ -2024,18 +2006,18 @@
         <v>2093988</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2047,13 +2029,13 @@
         <v>313864</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>313</v>
@@ -2062,13 +2044,13 @@
         <v>258175</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>573</v>
@@ -2077,13 +2059,13 @@
         <v>572039</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,13 +2080,13 @@
         <v>286217</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>470</v>
@@ -2113,13 +2095,13 @@
         <v>446962</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>749</v>
@@ -2128,13 +2110,13 @@
         <v>733179</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2131,13 @@
         <v>106912</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>198</v>
@@ -2164,13 +2146,13 @@
         <v>126799</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>314</v>
@@ -2179,19 +2161,19 @@
         <v>233711</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>20</v>
@@ -2200,13 +2182,13 @@
         <v>21148</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -2215,13 +2197,13 @@
         <v>39966</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -2230,13 +2212,13 @@
         <v>61114</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,13 +2233,13 @@
         <v>728141</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>1044</v>
@@ -2266,13 +2248,13 @@
         <v>871902</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1719</v>
@@ -2281,18 +2263,18 @@
         <v>1600043</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2304,28 +2286,28 @@
         <v>358872</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>404</v>
       </c>
       <c r="I24" s="7">
-        <v>327404</v>
+        <v>327405</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>738</v>
@@ -2334,13 +2316,13 @@
         <v>686276</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2337,13 @@
         <v>405454</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>649</v>
@@ -2370,13 +2352,13 @@
         <v>478134</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>1089</v>
@@ -2385,13 +2367,13 @@
         <v>883589</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,13 +2388,13 @@
         <v>155830</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>394</v>
@@ -2421,13 +2403,13 @@
         <v>258248</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>573</v>
@@ -2436,19 +2418,19 @@
         <v>414078</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>49</v>
@@ -2457,13 +2439,13 @@
         <v>42622</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>113</v>
@@ -2472,13 +2454,13 @@
         <v>83400</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>162</v>
@@ -2487,13 +2469,13 @@
         <v>126022</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,43 +2490,43 @@
         <v>962778</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>1560</v>
       </c>
       <c r="I28" s="7">
-        <v>1147186</v>
+        <v>1147187</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>2562</v>
       </c>
       <c r="N28" s="7">
-        <v>2109964</v>
+        <v>2109965</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2543,13 @@
         <v>1407044</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>1424</v>
@@ -2576,13 +2558,13 @@
         <v>1150050</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>2613</v>
@@ -2591,13 +2573,13 @@
         <v>2557094</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2594,13 @@
         <v>1296029</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>24</v>
       </c>
       <c r="H30" s="7">
         <v>2255</v>
@@ -2627,13 +2609,13 @@
         <v>1647478</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>3634</v>
@@ -2642,13 +2624,13 @@
         <v>2943507</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2645,13 @@
         <v>534956</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>1261</v>
@@ -2678,13 +2660,13 @@
         <v>749599</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>1902</v>
@@ -2693,19 +2675,19 @@
         <v>1284555</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
         <v>157</v>
@@ -2714,13 +2696,13 @@
         <v>140023</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>405</v>
@@ -2729,13 +2711,13 @@
         <v>247659</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>562</v>
@@ -2744,13 +2726,13 @@
         <v>387682</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>46</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2747,13 @@
         <v>3378053</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>5345</v>
@@ -2780,13 +2762,13 @@
         <v>3794786</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>8711</v>
@@ -2795,18 +2777,18 @@
         <v>7172838</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43FB5C8A-EC89-444F-857A-3A0BA53E9487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F41A1D6B-CBF6-4FC4-BE54-B108665E6E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD703E25-9489-4586-AEE8-AC5D4AAD30F3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CE7EEF06-5DDE-47EA-B9BE-8A1F682C2848}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="196">
   <si>
     <t>Población según se ha sentido rebosante de energía en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -65,661 +65,562 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
   </si>
   <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
     <t>33,36%</t>
   </si>
   <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
   </si>
   <si>
     <t>En algún momento</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
   </si>
   <si>
     <t>47,15%</t>
   </si>
   <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
   </si>
   <si>
     <t>41,65%</t>
   </si>
   <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,8 +1035,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9464005B-A10A-4ADE-A9A7-6E77659A45C7}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD146D4F-CFA8-4278-857A-303909B33329}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1252,10 +1153,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="D4" s="7">
-        <v>41490</v>
+        <v>253886</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1267,10 +1168,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="I4" s="7">
-        <v>29215</v>
+        <v>197334</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1282,10 +1183,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>78</v>
+        <v>536</v>
       </c>
       <c r="N4" s="7">
-        <v>70705</v>
+        <v>451220</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1303,10 +1204,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="D5" s="7">
-        <v>22822</v>
+        <v>211024</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1318,10 +1219,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>95</v>
+        <v>489</v>
       </c>
       <c r="I5" s="7">
-        <v>51934</v>
+        <v>267197</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1333,10 +1234,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>126</v>
+        <v>742</v>
       </c>
       <c r="N5" s="7">
-        <v>74756</v>
+        <v>478221</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1354,100 +1255,100 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="D6" s="7">
-        <v>31011</v>
+        <v>132714</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="I6" s="7">
-        <v>36078</v>
+        <v>149945</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>118</v>
+        <v>507</v>
       </c>
       <c r="N6" s="7">
-        <v>67089</v>
+        <v>282659</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7">
-        <v>5871</v>
+        <v>34900</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="I7" s="7">
-        <v>11609</v>
+        <v>57888</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="N7" s="7">
-        <v>17480</v>
+        <v>92788</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1456,102 +1357,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>726</v>
       </c>
       <c r="D8" s="7">
-        <v>101194</v>
+        <v>632524</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>240</v>
+        <v>1232</v>
       </c>
       <c r="I8" s="7">
-        <v>128836</v>
+        <v>672364</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>357</v>
+        <v>1958</v>
       </c>
       <c r="N8" s="7">
-        <v>230030</v>
+        <v>1304888</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>202</v>
+        <v>355</v>
       </c>
       <c r="D9" s="7">
-        <v>215624</v>
+        <v>649784</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>256</v>
+        <v>411</v>
       </c>
       <c r="I9" s="7">
-        <v>184147</v>
+        <v>310894</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>458</v>
+        <v>766</v>
       </c>
       <c r="N9" s="7">
-        <v>399771</v>
+        <v>960679</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,49 +1461,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>222</v>
+        <v>407</v>
       </c>
       <c r="D10" s="7">
-        <v>193466</v>
+        <v>377345</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>394</v>
+        <v>647</v>
       </c>
       <c r="I10" s="7">
-        <v>233028</v>
+        <v>399913</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>616</v>
+        <v>1054</v>
       </c>
       <c r="N10" s="7">
-        <v>426493</v>
+        <v>777258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,100 +1512,100 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D11" s="7">
-        <v>107369</v>
+        <v>127261</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>243</v>
+        <v>348</v>
       </c>
       <c r="I11" s="7">
-        <v>123924</v>
+        <v>186457</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="N11" s="7">
-        <v>231293</v>
+        <v>313719</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" s="7">
-        <v>31095</v>
+        <v>37664</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I12" s="7">
-        <v>50161</v>
+        <v>57277</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="N12" s="7">
-        <v>81256</v>
+        <v>94941</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,102 +1614,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>609</v>
+        <v>963</v>
       </c>
       <c r="D13" s="7">
-        <v>547553</v>
+        <v>1192054</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>992</v>
+        <v>1509</v>
       </c>
       <c r="I13" s="7">
-        <v>591260</v>
+        <v>954541</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>1601</v>
+        <v>2472</v>
       </c>
       <c r="N13" s="7">
-        <v>1138813</v>
+        <v>2146596</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>355</v>
+        <v>260</v>
       </c>
       <c r="D14" s="7">
-        <v>477195</v>
+        <v>303128</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>411</v>
+        <v>313</v>
       </c>
       <c r="I14" s="7">
-        <v>351109</v>
+        <v>234743</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>766</v>
+        <v>573</v>
       </c>
       <c r="N14" s="7">
-        <v>828304</v>
+        <v>537871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,49 +1718,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>407</v>
+        <v>279</v>
       </c>
       <c r="D15" s="7">
-        <v>388070</v>
+        <v>278286</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>647</v>
+        <v>470</v>
       </c>
       <c r="I15" s="7">
-        <v>437420</v>
+        <v>539949</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
-        <v>1054</v>
+        <v>749</v>
       </c>
       <c r="N15" s="7">
-        <v>825490</v>
+        <v>818235</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,100 +1769,100 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="D16" s="7">
-        <v>133835</v>
+        <v>102483</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>348</v>
+        <v>198</v>
       </c>
       <c r="I16" s="7">
-        <v>204550</v>
+        <v>119254</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>508</v>
+        <v>314</v>
       </c>
       <c r="N16" s="7">
-        <v>338385</v>
+        <v>221738</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>39287</v>
+        <v>20174</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="I17" s="7">
-        <v>62523</v>
+        <v>37386</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="N17" s="7">
-        <v>101810</v>
+        <v>57560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,102 +1871,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>963</v>
+        <v>675</v>
       </c>
       <c r="D18" s="7">
-        <v>1038387</v>
+        <v>704071</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>1509</v>
+        <v>1044</v>
       </c>
       <c r="I18" s="7">
-        <v>1055601</v>
+        <v>931333</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>2472</v>
+        <v>1719</v>
       </c>
       <c r="N18" s="7">
-        <v>2093988</v>
+        <v>1635404</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="D19" s="7">
-        <v>313864</v>
+        <v>343790</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
-        <v>313</v>
+        <v>404</v>
       </c>
       <c r="I19" s="7">
-        <v>258175</v>
+        <v>292771</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
-        <v>573</v>
+        <v>738</v>
       </c>
       <c r="N19" s="7">
-        <v>572039</v>
+        <v>636561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,49 +1975,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>279</v>
+        <v>440</v>
       </c>
       <c r="D20" s="7">
-        <v>286217</v>
+        <v>393060</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
-        <v>470</v>
+        <v>649</v>
       </c>
       <c r="I20" s="7">
-        <v>446962</v>
+        <v>491608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
-        <v>749</v>
+        <v>1089</v>
       </c>
       <c r="N20" s="7">
-        <v>733179</v>
+        <v>884668</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,100 +2026,100 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="D21" s="7">
-        <v>106912</v>
+        <v>147641</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
-        <v>198</v>
+        <v>394</v>
       </c>
       <c r="I21" s="7">
-        <v>126799</v>
+        <v>233724</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
-        <v>314</v>
+        <v>573</v>
       </c>
       <c r="N21" s="7">
-        <v>233711</v>
+        <v>381365</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>21148</v>
+        <v>39920</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="I22" s="7">
-        <v>39966</v>
+        <v>73421</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="M22" s="7">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="N22" s="7">
-        <v>61114</v>
+        <v>113341</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,102 +2128,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>675</v>
+        <v>1002</v>
       </c>
       <c r="D23" s="7">
-        <v>728141</v>
+        <v>924411</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>1044</v>
+        <v>1560</v>
       </c>
       <c r="I23" s="7">
-        <v>871902</v>
+        <v>1091524</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>1719</v>
+        <v>2562</v>
       </c>
       <c r="N23" s="7">
-        <v>1600043</v>
+        <v>2015936</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>334</v>
+        <v>1189</v>
       </c>
       <c r="D24" s="7">
-        <v>358872</v>
+        <v>1550589</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
-        <v>404</v>
+        <v>1424</v>
       </c>
       <c r="I24" s="7">
-        <v>327405</v>
+        <v>1035742</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
-        <v>738</v>
+        <v>2613</v>
       </c>
       <c r="N24" s="7">
-        <v>686276</v>
+        <v>2586330</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,49 +2232,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>440</v>
+        <v>1379</v>
       </c>
       <c r="D25" s="7">
-        <v>405454</v>
+        <v>1259715</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
-        <v>649</v>
+        <v>2255</v>
       </c>
       <c r="I25" s="7">
-        <v>478134</v>
+        <v>1698668</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
-        <v>1089</v>
+        <v>3634</v>
       </c>
       <c r="N25" s="7">
-        <v>883589</v>
+        <v>2958382</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,100 +2283,100 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
+        <v>641</v>
+      </c>
+      <c r="D26" s="7">
+        <v>510100</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="7">
-        <v>155830</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
-        <v>394</v>
+        <v>1261</v>
       </c>
       <c r="I26" s="7">
-        <v>258248</v>
+        <v>689381</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
-        <v>573</v>
+        <v>1902</v>
       </c>
       <c r="N26" s="7">
-        <v>414078</v>
+        <v>1199481</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="D27" s="7">
-        <v>42622</v>
+        <v>132658</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>189</v>
       </c>
       <c r="H27" s="7">
-        <v>113</v>
+        <v>405</v>
       </c>
       <c r="I27" s="7">
-        <v>83400</v>
+        <v>225973</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
-        <v>162</v>
+        <v>562</v>
       </c>
       <c r="N27" s="7">
-        <v>126022</v>
+        <v>358630</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,319 +2385,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>1002</v>
+        <v>3366</v>
       </c>
       <c r="D28" s="7">
-        <v>962778</v>
+        <v>3453061</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>1560</v>
+        <v>5345</v>
       </c>
       <c r="I28" s="7">
-        <v>1147187</v>
+        <v>3649763</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>2562</v>
+        <v>8711</v>
       </c>
       <c r="N28" s="7">
-        <v>2109965</v>
+        <v>7102823</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1189</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1407044</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="A29" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1424</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1150050</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2613</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2557094</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1379</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1296029</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="7">
-        <v>2255</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1647478</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M30" s="7">
-        <v>3634</v>
-      </c>
-      <c r="N30" s="7">
-        <v>2943507</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>641</v>
-      </c>
-      <c r="D31" s="7">
-        <v>534956</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1261</v>
-      </c>
-      <c r="I31" s="7">
-        <v>749599</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1902</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1284555</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="7">
-        <v>157</v>
-      </c>
-      <c r="D32" s="7">
-        <v>140023</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H32" s="7">
-        <v>405</v>
-      </c>
-      <c r="I32" s="7">
-        <v>247659</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M32" s="7">
-        <v>562</v>
-      </c>
-      <c r="N32" s="7">
-        <v>387682</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3366</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3378053</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="7">
-        <v>5345</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3794786</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M33" s="7">
-        <v>8711</v>
-      </c>
-      <c r="N33" s="7">
-        <v>7172838</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>228</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
